--- a/outputs/1_week_prediction_ALL.xlsx
+++ b/outputs/1_week_prediction_ALL.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/1_week_prediction_ALL.xlsx
+++ b/outputs/1_week_prediction_ALL.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -564,15 +564,15 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-W43</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>10</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-W43</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>347</v>
+        <v>580</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>328</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
